--- a/data/trans_camb/MCS12_SP_R3-Clase-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R3-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>0.07997820300059411</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.4291130564155254</v>
+        <v>0.4291130564155227</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.3495372188296819</v>
@@ -655,7 +655,7 @@
         <v>-4.149363484587082</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>1.160442651058413</v>
+        <v>1.160442651058405</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.2378180629724058</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.728173331459616</v>
+        <v>-6.210373675649524</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.022511790340286</v>
+        <v>-5.297677970586839</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.434862242224057</v>
+        <v>-4.296514814600483</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.752160190884327</v>
+        <v>-6.2734584807011</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-10.41960144069394</v>
+        <v>-10.74985295716858</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.338112628106816</v>
+        <v>-4.543882729150778</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-4.201282567485495</v>
+        <v>-4.48175227372321</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-5.618282099426612</v>
+        <v>-5.142352322377341</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.690357619392662</v>
+        <v>-2.868902931131212</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.234884697514254</v>
+        <v>4.123760934110708</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.857694057083927</v>
+        <v>5.956581671828605</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.964863586091998</v>
+        <v>5.898455907655325</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.844797774842712</v>
+        <v>7.994300788648075</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.900402832493028</v>
+        <v>1.206624482334407</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.786232073527988</v>
+        <v>7.087157651002411</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.620898723913932</v>
+        <v>4.020793109895911</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.630058269754489</v>
+        <v>3.027715158413817</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.844698439837016</v>
+        <v>4.731377269781</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.004588279475723944</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.02461784030708843</v>
+        <v>0.02461784030708827</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.01564035566978124</v>
@@ -760,7 +760,7 @@
         <v>-0.1856669825303132</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05192504494287116</v>
+        <v>0.05192504494287079</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.01228190612431036</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.29563560503532</v>
+        <v>-0.3052879471574411</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2489177749028281</v>
+        <v>-0.2701775462232727</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2162686569877113</v>
+        <v>-0.2129889268652579</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2620872743079584</v>
+        <v>-0.2545354984801032</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4027106316239066</v>
+        <v>-0.4154200392932229</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1750100942770671</v>
+        <v>-0.1738899621490823</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1967190006051719</v>
+        <v>-0.2102159409495</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2650870541019836</v>
+        <v>-0.247362800480224</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1254030588576818</v>
+        <v>-0.1330760206558617</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2998843128370318</v>
+        <v>0.2708700652233341</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3498982735935406</v>
+        <v>0.4205216463068843</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3931206056596824</v>
+        <v>0.4153463880014411</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3703498821409858</v>
+        <v>0.4461517127392686</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1018145283766008</v>
+        <v>0.06739654119414493</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3627205876936239</v>
+        <v>0.3806809673990836</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2098801241655055</v>
+        <v>0.2276446349202381</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.142684549959409</v>
+        <v>0.1932112717675015</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2827933000431599</v>
+        <v>0.271170293331477</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>0.2097009114706228</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-0.05474893115237911</v>
+        <v>-0.05474893115238466</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.1392756255858126</v>
+        <v>-0.207873256454819</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.222899605411368</v>
+        <v>-3.298435844640182</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.584351028139177</v>
+        <v>-3.923753474904299</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.3355624582531585</v>
+        <v>-0.2362910712717905</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-8.096387605900727</v>
+        <v>-7.736103026836752</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-7.045330000719269</v>
+        <v>-6.724688713380303</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8706389839476328</v>
+        <v>0.9485779612879817</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.922534717420231</v>
+        <v>-3.775325637478514</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-4.237832889604005</v>
+        <v>-4.252562834582024</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.34359420633711</v>
+        <v>11.37794677091371</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.088255147044209</v>
+        <v>7.642773585385513</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.399855974993168</v>
+        <v>6.303281477186147</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14.17304652395927</v>
+        <v>13.82955597126776</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.684386044803242</v>
+        <v>5.09114019868191</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.087098954250282</v>
+        <v>4.74742850674269</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>10.27391385102028</v>
+        <v>10.63714711384084</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.335891264610548</v>
+        <v>4.656684023712347</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.581040679234992</v>
+        <v>3.821522238798917</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.010297486136741</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.002688478345607914</v>
+        <v>-0.002688478345608187</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.007477849488213909</v>
+        <v>-0.01127899975122995</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1823996786581998</v>
+        <v>-0.1910885430633722</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2154146943712801</v>
+        <v>-0.2156227553762119</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.01204182440917165</v>
+        <v>-0.008611269507394173</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2799477062589956</v>
+        <v>-0.2744735991950644</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2353652737291992</v>
+        <v>-0.2291967815726936</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03779255003671256</v>
+        <v>0.04954666967250042</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1731593569497168</v>
+        <v>-0.1692197650662778</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1833902718159101</v>
+        <v>-0.1855125477224275</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.9285035922263061</v>
+        <v>0.9253488922374874</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6004406135503382</v>
+        <v>0.6247454550380903</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5301664625532702</v>
+        <v>0.5232663143161966</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6222065624303069</v>
+        <v>0.5860959028973917</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2073341953431793</v>
+        <v>0.2294570963914729</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2333480301323902</v>
+        <v>0.2137510695766691</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5471342722037877</v>
+        <v>0.6098352240763348</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2386961523961952</v>
+        <v>0.2593640587443981</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1951747634537906</v>
+        <v>0.2189796570974397</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>3.424367114332602</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5.151531845611546</v>
+        <v>5.151531845611548</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>9.240153713612347</v>
@@ -1092,7 +1092,7 @@
         <v>4.033449034038453</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>4.129381276480171</v>
+        <v>4.129381276480173</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.474316089839721</v>
+        <v>2.751807041677145</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.39658888541668</v>
+        <v>-1.230630159806775</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.08245038773365383</v>
+        <v>0.391439781597177</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.1516390561144817</v>
+        <v>0.8366711495621327</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.065603296402685</v>
+        <v>-3.968322481502231</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-8.406412719750625</v>
+        <v>-7.718078804926749</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>4.195797344901324</v>
+        <v>4.214890910652943</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.5374355170282308</v>
+        <v>-0.2121986200229345</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.184168234879632</v>
+        <v>-0.07150241014342601</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.50670861479966</v>
+        <v>12.09751053236934</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.577463805099153</v>
+        <v>8.495080810455503</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.17169729431287</v>
+        <v>10.4692255361949</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.62140071861115</v>
+        <v>18.79854915210474</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>15.18845129447624</v>
+        <v>17.01163070232842</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.748747397496849</v>
+        <v>9.021325968405103</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>12.84220482645281</v>
+        <v>12.98339669087276</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>8.161339618141218</v>
+        <v>8.460369353899603</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>8.327418648029015</v>
+        <v>8.096842536490662</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.189137804397522</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.2845341606292056</v>
+        <v>0.2845341606292058</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.3653570101126973</v>
@@ -1197,7 +1197,7 @@
         <v>0.2036809055195312</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.2085252870511071</v>
+        <v>0.2085252870511072</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1268182879425015</v>
+        <v>0.1324882672708534</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.07007063516887643</v>
+        <v>-0.06430138824900503</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.009584879597197647</v>
+        <v>0.02104796279281554</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.005970177903652542</v>
+        <v>0.02998906348704759</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1375597443498258</v>
+        <v>-0.1418825583501752</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2774130630383455</v>
+        <v>-0.2584894234548277</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1929367205636938</v>
+        <v>0.1846439151096139</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.01739793695728661</v>
+        <v>-0.009981334210686256</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.01237141581452568</v>
+        <v>-0.0004575454312406258</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.8146011759213632</v>
+        <v>0.7889243636735014</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.5443608026013079</v>
+        <v>0.5125571085274291</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.6360428449487853</v>
+        <v>0.6872319004725271</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.8939353685394175</v>
+        <v>1.011152872670173</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7758333363774611</v>
+        <v>0.881504510577885</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4435853603973079</v>
+        <v>0.4327601472469722</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7310231547345099</v>
+        <v>0.7641105471934524</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4675466565453729</v>
+        <v>0.4761792718954541</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.4598489602251836</v>
+        <v>0.464180466879183</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-1.986416871433164</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-1.019047919822491</v>
+        <v>-1.019047919822494</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>3.411278795295203</v>
@@ -1306,7 +1306,7 @@
         <v>-0.9498448235217616</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.7880700761834669</v>
+        <v>-0.7880700761834697</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.9355609960556531</v>
+        <v>-0.8508288458550445</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.054611166752205</v>
+        <v>-5.478599084232974</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.705244930233068</v>
+        <v>-4.320567218223585</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.561348348831806</v>
+        <v>-1.074859044999618</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.890534695354684</v>
+        <v>-4.663568502654064</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-5.367216510186578</v>
+        <v>-5.531711954084407</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1648576800758649</v>
+        <v>0.3453406009853715</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.657165192374925</v>
+        <v>-3.780330092225655</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.362507481270217</v>
+        <v>-3.537189234284979</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.133410800018892</v>
+        <v>6.320628942801084</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.377642882061253</v>
+        <v>1.512419144837719</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.941310866392955</v>
+        <v>2.719360790257886</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.034774756860633</v>
+        <v>8.50206922194894</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.617625169084056</v>
+        <v>4.517102972359518</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.03931781771937</v>
+        <v>3.144976066009684</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.82592927363238</v>
+        <v>6.0789000019579</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.750562590658831</v>
+        <v>1.756511020350609</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.886856198929347</v>
+        <v>1.754887004682068</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.09090353808481864</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.04663425020298208</v>
+        <v>-0.0466342502029822</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1281791377460281</v>
@@ -1411,7 +1411,7 @@
         <v>-0.04025840882201018</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.03340171628219633</v>
+        <v>-0.03340171628219644</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.04249462778941172</v>
+        <v>-0.03814598476719313</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2155329940387976</v>
+        <v>-0.2294339868915661</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1953351555364052</v>
+        <v>-0.1850886205691283</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.05783895898498754</v>
+        <v>-0.03806921600681344</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1664646624927935</v>
+        <v>-0.1587830667079454</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1857425342033592</v>
+        <v>-0.1858115027223252</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.006029575170062969</v>
+        <v>0.01275532649653347</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1476243071278107</v>
+        <v>-0.1518474603807614</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1333274873400503</v>
+        <v>-0.1414514586555302</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3052487525940847</v>
+        <v>0.322796657060731</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.0678020153828815</v>
+        <v>0.07055330401780568</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.09515719101424648</v>
+        <v>0.1379348886393575</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3371251606970546</v>
+        <v>0.3589236451310401</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1905056823064318</v>
+        <v>0.182737420735283</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1271745881877072</v>
+        <v>0.1296065628645455</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2610544472958773</v>
+        <v>0.2767641560402163</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.07861467889592251</v>
+        <v>0.0805777266906562</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.08586400376209173</v>
+        <v>0.07775641372308001</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>1.012751482220051</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1.96123010356451</v>
+        <v>1.961230103564515</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>9.853911125154568</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.843352535985699</v>
+        <v>-2.388048739503019</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.054161130155662</v>
+        <v>-4.581778668753551</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.237294327703098</v>
+        <v>-3.459525687848515</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4.592030630601296</v>
+        <v>4.705671883858268</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.7774684054092865</v>
+        <v>0.2837874213291098</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.210629135468328</v>
+        <v>-1.251529032826381</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.856250385305299</v>
+        <v>3.372405231040377</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.219064056914302</v>
+        <v>-1.274399060154634</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.187950207471746</v>
+        <v>-0.9902523357632066</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>8.583914416463951</v>
+        <v>8.984753122627938</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.666654895728899</v>
+        <v>6.686211573399111</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.218458786407635</v>
+        <v>7.078811464019205</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>15.04296192530048</v>
+        <v>15.36890445400435</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>10.60332445834629</v>
+        <v>10.59794590198911</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>8.03460640715147</v>
+        <v>7.654195050435966</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>10.67296479019302</v>
+        <v>11.11204243203187</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>6.486055154257871</v>
+        <v>6.59117957203375</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6.239854836647515</v>
+        <v>5.988881254594689</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.05143047323986662</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.09959698319817316</v>
+        <v>0.09959698319817344</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.3367197262935657</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1308826883467021</v>
+        <v>-0.09772481365760285</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2152540976666377</v>
+        <v>-0.1992154677999307</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1749511360064081</v>
+        <v>-0.1521127530169855</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1385180843469405</v>
+        <v>0.1474183328184954</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.02257512342802534</v>
+        <v>0.006475169346314777</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.04064530627992208</v>
+        <v>-0.03864193569584507</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1010561730209245</v>
+        <v>0.1222188154483192</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.04220040974061921</v>
+        <v>-0.05212238308642939</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.04177012735410111</v>
+        <v>-0.03712210904698274</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.5163552344678377</v>
+        <v>0.5677806857545799</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4190815578971298</v>
+        <v>0.4039684222141078</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4625173532887644</v>
+        <v>0.4290122959644466</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5574940971963284</v>
+        <v>0.5930883507335936</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4080847924486881</v>
+        <v>0.3964670247913771</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3078990890938986</v>
+        <v>0.2881707718150986</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4570665927088955</v>
+        <v>0.4835687105748963</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2793395693261293</v>
+        <v>0.2833459072131357</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.2719725039897137</v>
+        <v>0.25389978125106</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>-0.9533138719316367</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>0.2200420731308578</v>
+        <v>0.220042073130855</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>5.97163237336718</v>
@@ -1734,7 +1734,7 @@
         <v>-2.15710575755034</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>1.054289138510994</v>
+        <v>1.054289138511</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.36545187091489</v>
+        <v>-1.763025109355914</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-6.214580515047182</v>
+        <v>-5.518086028984761</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-5.8633449057361</v>
+        <v>-5.849009355383778</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2.220043748907895</v>
+        <v>2.376488862674688</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-6.244300638340402</v>
+        <v>-5.685387278659677</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.949916618392995</v>
+        <v>-2.094047130624294</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>2.171507312254348</v>
+        <v>2.402707035543622</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-5.231247113396352</v>
+        <v>-5.297908437278824</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-2.636590716885871</v>
+        <v>-2.313053612500981</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>9.58270842352756</v>
+        <v>9.752213555290766</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.967646618526382</v>
+        <v>4.715574611206566</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7.578809315825391</v>
+        <v>7.391028091543263</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>9.837604219798592</v>
+        <v>9.730929214766276</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.229421939329703</v>
+        <v>1.46958232684495</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>5.761588464226077</v>
+        <v>5.329904004988823</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>9.063848020672928</v>
+        <v>8.886473336658922</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>0.9394856353331347</v>
+        <v>1.080415809016516</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>4.244824933320489</v>
+        <v>4.543180887773825</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.08075857349189183</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.01864053850201494</v>
+        <v>0.01864053850201471</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.2246709362370052</v>
@@ -1839,7 +1839,7 @@
         <v>-0.09089685708641694</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.04442599479212557</v>
+        <v>0.0444259947921258</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1593936241907067</v>
+        <v>-0.1344376311808463</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4334337058282073</v>
+        <v>-0.4011569039219575</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4343648022100366</v>
+        <v>-0.4343067601599868</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.0776844585632384</v>
+        <v>0.08405929734248717</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2196810682844146</v>
+        <v>-0.2010430676221321</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.06912562883160892</v>
+        <v>-0.07418987417190999</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.08594313899015021</v>
+        <v>0.09670736590820941</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.2076210835353663</v>
+        <v>-0.2102006889234164</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1032924367100136</v>
+        <v>-0.09314762724515294</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.018139947585819</v>
+        <v>1.075156541082364</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.4037600272494042</v>
+        <v>0.5222387982509233</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.781223205590761</v>
+        <v>0.7573520183698066</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.3957522104079507</v>
+        <v>0.3892405440643012</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.04821799947017787</v>
+        <v>0.05805498458831546</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2310471032048599</v>
+        <v>0.2131832447204687</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4042540581245205</v>
+        <v>0.4020165593902061</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.04463480888096342</v>
+        <v>0.04942590587504676</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.183812444797204</v>
+        <v>0.1959564683908916</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>0.2428319422164399</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>0.8958097778601543</v>
+        <v>0.895809777860157</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>6.16910399955215</v>
@@ -1939,7 +1939,7 @@
         <v>0.2796714042682946</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>0.9386031118455929</v>
+        <v>0.9386031118455984</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>4.926429066779167</v>
@@ -1948,7 +1948,7 @@
         <v>0.2807860810806112</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>0.9603479939629428</v>
+        <v>0.9603479939629372</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1.480582969321866</v>
+        <v>1.577901343643054</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.670037075124655</v>
+        <v>-1.671690470938859</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.065817085643368</v>
+        <v>-1.027372274141731</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>3.81833240926092</v>
+        <v>3.893524986951928</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-2.100128903218891</v>
+        <v>-1.698742696569735</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-1.105881478327031</v>
+        <v>-1.111156448615796</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>3.299983572930428</v>
+        <v>3.255683597329234</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.078967088179078</v>
+        <v>-1.348761040141191</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.3779439645363801</v>
+        <v>-0.3641848489731601</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>5.64446432586214</v>
+        <v>5.637802645216948</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.331514900463837</v>
+        <v>2.325289780051412</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.878840224791785</v>
+        <v>3.040929865436472</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>8.177308598650662</v>
+        <v>8.440585605439001</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.326361958703166</v>
+        <v>2.388824565097051</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>2.891719503059406</v>
+        <v>2.898619679456238</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>6.447961868730145</v>
+        <v>6.340974981677555</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.812557438832192</v>
+        <v>1.742074931651172</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>2.513035311746259</v>
+        <v>2.286844101180404</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.0130304261139984</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.04806938912591627</v>
+        <v>0.04806938912591641</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.232572652872579</v>
@@ -2044,7 +2044,7 @@
         <v>0.01054349552674078</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.0353849466198389</v>
+        <v>0.0353849466198391</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.2175535642138154</v>
@@ -2053,7 +2053,7 @@
         <v>0.01239965335797548</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.04240944630282064</v>
+        <v>0.0424094463028204</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.07818736083578784</v>
+        <v>0.07705688191974065</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.0838967983761281</v>
+        <v>-0.08633345935706374</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.05341224205178514</v>
+        <v>-0.05191346974222296</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.1401348692119511</v>
+        <v>0.1425393840777976</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.07455386163235217</v>
+        <v>-0.06126287253785077</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.04006087040115727</v>
+        <v>-0.0402039170199846</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1415936153335495</v>
+        <v>0.1405515536442991</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.04564747288973974</v>
+        <v>-0.05810662227503006</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.01604904853798465</v>
+        <v>-0.01645980968550111</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.3265018605125981</v>
+        <v>0.3181347852727099</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1338471394968376</v>
+        <v>0.1325436536743666</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.1663860813169566</v>
+        <v>0.1779161109509269</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.3246155873965239</v>
+        <v>0.335138467987647</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.09311539335912958</v>
+        <v>0.09496383071447699</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1139403296959757</v>
+        <v>0.1119573396030616</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2938293459407582</v>
+        <v>0.289459954541087</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.08257608171271609</v>
+        <v>0.07829455385917795</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.1153736660660594</v>
+        <v>0.1036844813749729</v>
       </c>
     </row>
     <row r="46">
